--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,81 +467,81 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -611,27 +611,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -641,127 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13-15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Land or return to home promptly</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3-8</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>If the issue persists, contact DJI Support</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>21-27</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>The ground or walls may contain metal</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15-21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,81 +467,81 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -611,37 +611,157 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Obstacle avoidance unavailable</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>4</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Backward obstacle avoidance unavailable</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5-8</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Event</t>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13-15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Land or return to home promptly</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3-8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>If the issue persists, contact DJI Support</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21-27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The ground or walls may contain metal</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15-21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
